--- a/backend/Журнал_регистрации_ТУ_ГПЗУ.xlsx
+++ b/backend/Журнал_регистрации_ТУ_ГПЗУ.xlsx
@@ -589,7 +589,7 @@
   <dimension ref="A1:H56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+      <selection activeCell="A57" sqref="A57:XFD59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,8 +600,8 @@
     <col min="6" max="6" width="39" style="1" customWidth="1"/>
     <col min="7" max="7" width="47" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.85546875" style="1" customWidth="1"/>
-    <col min="9" max="10" width="9.140625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="9" max="11" width="9.140625" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">

--- a/backend/Журнал_регистрации_ТУ_ГПЗУ.xlsx
+++ b/backend/Журнал_регистрации_ТУ_ГПЗУ.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H59"/>
+  <dimension ref="A1:H62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:XFD59"/>
@@ -2784,6 +2784,126 @@
         </is>
       </c>
       <c r="H59" t="inlineStr">
+        <is>
+          <t>ООО «ЭнергоТранзит», ООО «Новокузнецкая теплосетевая компания»</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>13.12.2025</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>6391480633</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>«10» ноября 2025 г.</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Ибаев Алескер Фархад оглы</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>42:30:0206002:189</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Кемеровская область, г. Новокузнецк, ул. Лесная, д. 14</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>ООО «Водоканал»</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>13.12.2025</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>6391480633</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>«10» ноября 2025 г.</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Ибаев Алескер Фархад оглы</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>42:30:0206002:189</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Кемеровская область, г. Новокузнецк, ул. Лесная, д. 14</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>филиал ООО «Газпром газораспределение Сибирь»</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>13.12.2025</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>6391480633</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>«10» ноября 2025 г.</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Ибаев Алескер Фархад оглы</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>42:30:0206002:189</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Кемеровская область, г. Новокузнецк, ул. Лесная, д. 14</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
         <is>
           <t>ООО «ЭнергоТранзит», ООО «Новокузнецкая теплосетевая компания»</t>
         </is>

--- a/backend/Журнал_регистрации_ТУ_ГПЗУ.xlsx
+++ b/backend/Журнал_регистрации_ТУ_ГПЗУ.xlsx
@@ -423,7 +423,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H191"/>
+  <dimension ref="A1:H194"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
       <selection activeCell="A57" sqref="A57:XFD59"/>
@@ -7923,7 +7923,6 @@
           <t>«25» декабря 2025 г.</t>
         </is>
       </c>
-      <c r="E189" t="inlineStr"/>
       <c r="F189" t="inlineStr">
         <is>
           <t>42:30:0505029:47</t>
@@ -7959,7 +7958,6 @@
           <t>«25» декабря 2025 г.</t>
         </is>
       </c>
-      <c r="E190" t="inlineStr"/>
       <c r="F190" t="inlineStr">
         <is>
           <t>42:30:0505029:47</t>
@@ -7995,7 +7993,6 @@
           <t>«25» декабря 2025 г.</t>
         </is>
       </c>
-      <c r="E191" t="inlineStr"/>
       <c r="F191" t="inlineStr">
         <is>
           <t>42:30:0505029:47</t>
@@ -8007,6 +8004,126 @@
         </is>
       </c>
       <c r="H191" t="inlineStr">
+        <is>
+          <t>ООО «ЭнергоТранзит», ООО «Новокузнецкая теплосетевая компания»</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>1</v>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>09.01.2026</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>6301280823</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>«22» октября 2025 г.</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Хусаинов Тимур Оразмухомедович</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>42:30:0303002:192</t>
+        </is>
+      </c>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>Кемеровская область, Новокузнецкий городской округ, город Новокузнецк, Центральный район, улица Лизы Чайкиной, земельный участок №2-А, корпус 5</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr">
+        <is>
+          <t>ООО «Водоканал»</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>2</v>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>09.01.2026</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>6301280823</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>«22» октября 2025 г.</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Хусаинов Тимур Оразмухомедович</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>42:30:0303002:192</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>Кемеровская область, Новокузнецкий городской округ, город Новокузнецк, Центральный район, улица Лизы Чайкиной, земельный участок №2-А, корпус 5</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr">
+        <is>
+          <t>филиал ООО «Газпром газораспределение Сибирь»</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>3</v>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>09.01.2026</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>6301280823</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>«22» октября 2025 г.</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Хусаинов Тимур Оразмухомедович</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>42:30:0303002:192</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>Кемеровская область, Новокузнецкий городской округ, город Новокузнецк, Центральный район, улица Лизы Чайкиной, земельный участок №2-А, корпус 5</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
         <is>
           <t>ООО «ЭнергоТранзит», ООО «Новокузнецкая теплосетевая компания»</t>
         </is>
